--- a/src/assets/file/ExcelToBar.xlsx
+++ b/src/assets/file/ExcelToBar.xlsx
@@ -377,7 +377,9 @@
   </sheetPr>
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -410,25 +412,25 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1">
+        <v>80</v>
+      </c>
+      <c r="D2" s="1">
         <v>120</v>
       </c>
-      <c r="B2" s="1">
+      <c r="E2" s="1">
         <v>200</v>
       </c>
-      <c r="C2" s="1">
+      <c r="F2" s="1">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1">
         <v>150</v>
-      </c>
-      <c r="D2" s="1">
-        <v>80</v>
-      </c>
-      <c r="E2" s="1">
-        <v>70</v>
-      </c>
-      <c r="F2" s="1">
-        <v>110</v>
-      </c>
-      <c r="G2" s="1">
-        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25"/>
